--- a/TestScenario.xlsx
+++ b/TestScenario.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yahya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mydata\github\documention\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -391,10 +391,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -413,6 +409,8 @@
     <xf numFmtId="15" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -724,7 +722,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,48 +737,48 @@
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="29"/>
+      <c r="C1" s="27"/>
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="29"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="28">
         <v>41687</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -795,15 +793,17 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="12"/>
+      <c r="C7" s="8">
+        <v>17</v>
+      </c>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
@@ -813,7 +813,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="12"/>
     </row>
@@ -825,12 +825,12 @@
         <v>59</v>
       </c>
       <c r="C9" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -849,7 +849,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="12"/>
     </row>
@@ -866,7 +866,7 @@
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -881,7 +881,7 @@
       <c r="A14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="8"/>
@@ -949,7 +949,7 @@
       <c r="A20" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="11"/>
@@ -967,15 +967,15 @@
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
     </row>
     <row r="23" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">

--- a/TestScenario.xlsx
+++ b/TestScenario.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Project Name</t>
   </si>
@@ -188,38 +188,44 @@
     <t xml:space="preserve"> Muhammad Yahya</t>
   </si>
   <si>
+    <t>Validate if user can view his profile</t>
+  </si>
+  <si>
+    <t>TS_MCS_24</t>
+  </si>
+  <si>
+    <t>Validate if Documents are attached directly from scanner</t>
+  </si>
+  <si>
+    <t>Validate if user is redirected to login page after unsuccessful login</t>
+  </si>
+  <si>
+    <t>TS_MCS_25</t>
+  </si>
+  <si>
+    <t>Validate if user can apply for license according to his roles</t>
+  </si>
+  <si>
+    <t>Validate that user can't upload file in invalid format</t>
+  </si>
+  <si>
+    <t>TS_MCS_26</t>
+  </si>
+  <si>
+    <t>TS_MCS_27</t>
+  </si>
+  <si>
     <t xml:space="preserve">Validate if the user is able to edit the fields other than the following and save changes Personal Details 
-●Name
+●First Name                                                                                                                                                                     ●Lasr Name
 ● Gender 
 ● Email
-● Phone </t>
-  </si>
-  <si>
-    <t>Validate if user can view his profile</t>
-  </si>
-  <si>
-    <t>TS_MCS_24</t>
-  </si>
-  <si>
-    <t>Validate if Documents are attached directly from scanner</t>
-  </si>
-  <si>
-    <t>Validate if user is redirected to login page after unsuccessful login</t>
-  </si>
-  <si>
-    <t>TS_MCS_25</t>
-  </si>
-  <si>
-    <t>Validate if user can apply for license according to his roles</t>
-  </si>
-  <si>
-    <t>Validate that user can't upload file in invalid format</t>
-  </si>
-  <si>
-    <t>TS_MCS_26</t>
-  </si>
-  <si>
-    <t>TS_MCS_27</t>
+● Phone                                                                                                                                                                         ●Password                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t>Validate if update function is working properly</t>
+  </si>
+  <si>
+    <t>TS_MCS_28</t>
   </si>
 </sst>
 </file>
@@ -331,7 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -384,9 +390,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -403,14 +406,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -719,10 +722,10 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,48 +740,48 @@
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="27"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="29">
         <v>41687</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -793,7 +796,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>12</v>
       </c>
@@ -803,7 +806,7 @@
       <c r="C7" s="8">
         <v>17</v>
       </c>
-      <c r="D7" s="29"/>
+      <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
@@ -822,7 +825,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="8">
         <v>3</v>
@@ -858,7 +861,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="8">
         <v>1</v>
@@ -870,44 +873,46 @@
         <v>49</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="8">
         <v>1</v>
       </c>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C16" s="8">
         <v>3</v>
-      </c>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="8">
-        <v>1</v>
       </c>
       <c r="D16" s="12"/>
     </row>
@@ -916,100 +921,100 @@
         <v>25</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="8">
         <v>1</v>
       </c>
       <c r="D17" s="12"/>
     </row>
-    <row r="18" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="11">
-        <v>9</v>
-      </c>
+      <c r="C19" s="11"/>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="11">
         <v>9</v>
       </c>
-      <c r="C20" s="11"/>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C22" s="11">
         <v>6</v>
       </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-    </row>
-    <row r="23" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="16">
-        <v>2</v>
-      </c>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
+    </row>
+    <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="16">
+        <v>2</v>
+      </c>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C25" s="16">
         <v>4</v>
-      </c>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="16">
-        <v>1</v>
       </c>
       <c r="D25" s="12"/>
     </row>
@@ -1018,9 +1023,9 @@
         <v>38</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="15">
+        <v>61</v>
+      </c>
+      <c r="C26" s="16">
         <v>1</v>
       </c>
       <c r="D26" s="12"/>
@@ -1030,77 +1035,77 @@
         <v>40</v>
       </c>
       <c r="B27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="15">
+        <v>1</v>
+      </c>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="15">
-        <v>1</v>
-      </c>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="16">
-        <v>4</v>
-      </c>
-      <c r="D28" s="3"/>
+      <c r="C28" s="15">
+        <v>1</v>
+      </c>
+      <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>44</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C29" s="16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="16">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="16">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="16"/>
+      <c r="C31" s="16">
+        <v>1</v>
+      </c>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="16">
-        <v>1</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="16"/>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C33" s="16">
         <v>1</v>
@@ -1108,19 +1113,25 @@
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="16">
+        <v>1</v>
+      </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="3"/>
@@ -1166,6 +1177,12 @@
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
